--- a/Resultados/Resumo_Geral_TSP_36ha.xlsx
+++ b/Resultados/Resumo_Geral_TSP_36ha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{631D7055-6228-4929-883C-98CA784906AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A24D96-7955-439E-AA46-154C15109350}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{631D7055-6228-4929-883C-98CA784906AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BFE6456-B7D8-46F1-B71E-CE2BE48DFB33}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D5E988F-B58C-4F85-8878-C489836C5C6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D5E988F-B58C-4F85-8878-C489836C5C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>TSP 36 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -315,7 +315,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>field_36ha_100ha_2%_6m_0_TSP\</c:v>
+            <c:v>36ha_2%_6m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -523,7 +523,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>ield_36ha_100ha_2%_12m_0_TSP\</c:v>
+            <c:v>36ha_2%_12m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -765,7 +765,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>field_36ha_100ha_6%_6m_0_TSP\</c:v>
+            <c:v>36ha_6%_6m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -973,7 +973,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>ield_36ha_100ha_6%_12m_0_TSP\</c:v>
+            <c:v>36ha_6%_12m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1249,7 +1249,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>eld_36ha_100ha_10%_12m_0_TSP\</c:v>
+            <c:v>36ha_10%_12m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1525,7 +1525,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>eld_36ha_100ha_14%_12m_0_TSP\</c:v>
+            <c:v>36ha_14%_12m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1801,7 +1801,7 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>eld_36ha_100ha_18%_12m_0_TSP\</c:v>
+            <c:v>36ha_18%_12m_TSP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2024,6 +2024,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume de Tanque de Pulverização [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2042,6 +2064,28 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Capacidade Operacional Máxima [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2056,6 +2100,44 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83835982905982909"/>
+          <c:y val="0.22261701388888894"/>
+          <c:w val="0.1534991452991453"/>
+          <c:h val="0.62525538194444441"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2081,16 +2163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2438,9 +2520,11 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2454,9 +2538,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>46</v>
       </c>
@@ -2473,9 +2557,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>47</v>
       </c>
@@ -2494,9 +2578,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2673,7 @@
         <v>1.2948840000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2615,7 +2699,7 @@
         <v>1.3875120000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2725,7 @@
         <v>1.4443199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2751,7 @@
         <v>1.4864760000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2777,7 @@
         <v>1.5150239999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2719,7 +2803,7 @@
         <v>1.5363</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2745,7 +2829,7 @@
         <v>1.55142</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2771,7 +2855,7 @@
         <v>1.5651359999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2881,7 @@
         <v>1.5727319999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2823,7 +2907,7 @@
         <v>1.5817679999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2933,7 @@
         <v>1.5878159999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2875,7 +2959,7 @@
         <v>1.5924599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2901,7 +2985,7 @@
         <v>1.5978239999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +3011,7 @@
         <v>1.602252</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2953,7 +3037,7 @@
         <v>1.601388</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2979,7 +3063,7 @@
         <v>1.604592</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3005,7 +3089,7 @@
         <v>1.604916</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3031,7 +3115,7 @@
         <v>1.6046999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3057,7 +3141,7 @@
         <v>1.6073279999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3083,7 +3167,7 @@
         <v>1.6039080000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3109,7 +3193,7 @@
         <v>1.6025400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3135,7 +3219,7 @@
         <v>1.6025400000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3245,7 @@
         <v>1.6011360000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3187,7 +3271,7 @@
         <v>1.5996239999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3213,7 +3297,7 @@
         <v>1.6004879999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3239,7 +3323,7 @@
         <v>1.599264</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3265,7 +3349,7 @@
         <v>1.598292</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3303,9 +3387,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>49</v>
       </c>
@@ -3322,9 +3406,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>50</v>
       </c>
@@ -3343,9 +3427,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3412,7 +3496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3438,7 +3522,7 @@
         <v>1.192212</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3464,7 +3548,7 @@
         <v>1.2917879999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3574,7 @@
         <v>1.3557599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3516,7 +3600,7 @@
         <v>1.4007959999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3542,7 +3626,7 @@
         <v>1.4326560000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3568,7 +3652,7 @@
         <v>1.458828</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +3678,7 @@
         <v>1.475352</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3620,7 +3704,7 @@
         <v>1.491984</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3646,7 +3730,7 @@
         <v>1.5064199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3672,7 +3756,7 @@
         <v>1.5135480000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3698,7 +3782,7 @@
         <v>1.5242759999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3724,7 +3808,7 @@
         <v>1.527552</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +3834,7 @@
         <v>1.5339600000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3776,7 +3860,7 @@
         <v>1.5379919999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3802,7 +3886,7 @@
         <v>1.5409800000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3828,7 +3912,7 @@
         <v>1.543536</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3854,7 +3938,7 @@
         <v>1.5467040000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3880,7 +3964,7 @@
         <v>1.5479640000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3906,7 +3990,7 @@
         <v>1.5478559999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3932,7 +4016,7 @@
         <v>1.5483600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3958,7 +4042,7 @@
         <v>1.5454440000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3984,7 +4068,7 @@
         <v>1.5485399999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4010,7 +4094,7 @@
         <v>1.5479640000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4036,7 +4120,7 @@
         <v>1.5465960000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4062,7 +4146,7 @@
         <v>1.54566</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4088,7 +4172,7 @@
         <v>1.54332</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4114,7 +4198,7 @@
         <v>1.5431400000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4154,9 +4238,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4188,7 +4272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4223,7 +4307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4249,7 +4333,7 @@
         <v>1.9601639999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4275,7 +4359,7 @@
         <v>1.988964</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4301,7 +4385,7 @@
         <v>2.0039760000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4327,7 +4411,7 @@
         <v>2.0094480000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4353,7 +4437,7 @@
         <v>2.0108160000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4379,7 +4463,7 @@
         <v>2.0145960000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4405,7 +4489,7 @@
         <v>2.0121479999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4431,7 +4515,7 @@
         <v>2.0121479999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4457,7 +4541,7 @@
         <v>2.0096999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4483,7 +4567,7 @@
         <v>2.0087999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4509,7 +4593,7 @@
         <v>2.001852</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4535,7 +4619,7 @@
         <v>2.002176</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4645,7 @@
         <v>1.9951920000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4587,7 +4671,7 @@
         <v>1.9928159999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4613,7 +4697,7 @@
         <v>1.9874880000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4639,7 +4723,7 @@
         <v>1.98072</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4665,7 +4749,7 @@
         <v>1.98234</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4691,7 +4775,7 @@
         <v>1.9762560000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4717,7 +4801,7 @@
         <v>1.9701359999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4743,7 +4827,7 @@
         <v>1.9641960000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4769,7 +4853,7 @@
         <v>1.9578960000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4795,7 +4879,7 @@
         <v>1.9587239999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4821,7 +4905,7 @@
         <v>1.9529999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4847,7 +4931,7 @@
         <v>1.9397880000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4873,7 +4957,7 @@
         <v>1.933632</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4899,7 +4983,7 @@
         <v>1.9278000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4925,7 +5009,7 @@
         <v>1.9213560000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4965,9 +5049,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5034,7 +5118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5060,7 +5144,7 @@
         <v>2.4791399999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5086,7 +5170,7 @@
         <v>2.5177680000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5112,7 +5196,7 @@
         <v>2.5426799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5138,7 +5222,7 @@
         <v>2.5511400000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5164,7 +5248,7 @@
         <v>2.5565039999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5190,7 +5274,7 @@
         <v>2.55924</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5216,7 +5300,7 @@
         <v>2.5585200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5242,7 +5326,7 @@
         <v>2.5534440000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5268,7 +5352,7 @@
         <v>2.550888</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5294,7 +5378,7 @@
         <v>2.5495199999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5320,7 +5404,7 @@
         <v>2.5391880000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5346,7 +5430,7 @@
         <v>2.5361639999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5372,7 +5456,7 @@
         <v>2.5266600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5398,7 +5482,7 @@
         <v>2.5239600000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5424,7 +5508,7 @@
         <v>2.5157880000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5450,7 +5534,7 @@
         <v>2.50542</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5476,7 +5560,7 @@
         <v>2.506176</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5502,7 +5586,7 @@
         <v>2.4963480000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5528,7 +5612,7 @@
         <v>2.4870959999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5554,7 +5638,7 @@
         <v>2.4773399999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5580,7 +5664,7 @@
         <v>2.4677279999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5606,7 +5690,7 @@
         <v>2.4692400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5632,7 +5716,7 @@
         <v>2.4603839999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5658,7 +5742,7 @@
         <v>2.450736</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5684,7 +5768,7 @@
         <v>2.44224</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5710,7 +5794,7 @@
         <v>2.4337080000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5736,7 +5820,7 @@
         <v>2.4261119999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5774,9 +5858,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>40</v>
       </c>
@@ -5795,9 +5879,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5829,7 +5913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5864,7 +5948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5890,7 +5974,7 @@
         <v>1.2104999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5916,7 +6000,7 @@
         <v>1.246788</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5942,7 +6026,7 @@
         <v>1.265976</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5968,7 +6052,7 @@
         <v>1.2789000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5994,7 +6078,7 @@
         <v>1.2871080000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6020,7 +6104,7 @@
         <v>1.2945600000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6046,7 +6130,7 @@
         <v>1.2974399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6072,7 +6156,7 @@
         <v>1.3011840000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6098,7 +6182,7 @@
         <v>1.3017239999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6124,7 +6208,7 @@
         <v>1.3019040000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6150,7 +6234,7 @@
         <v>1.3028400000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6176,7 +6260,7 @@
         <v>1.3048200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6202,7 +6286,7 @@
         <v>1.3044960000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6228,7 +6312,7 @@
         <v>1.3029120000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6254,7 +6338,7 @@
         <v>1.3026239999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6280,7 +6364,7 @@
         <v>1.3020119999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6306,7 +6390,7 @@
         <v>1.301112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6332,7 +6416,7 @@
         <v>1.300824</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6358,7 +6442,7 @@
         <v>1.2980520000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6384,7 +6468,7 @@
         <v>1.2980160000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6410,7 +6494,7 @@
         <v>1.295172</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6436,7 +6520,7 @@
         <v>1.2949919999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6462,7 +6546,7 @@
         <v>1.291248</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6488,7 +6572,7 @@
         <v>1.2913560000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6514,7 +6598,7 @@
         <v>1.2889079999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6540,7 +6624,7 @@
         <v>1.2889079999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6566,7 +6650,7 @@
         <v>1.286208</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6606,9 +6690,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6640,7 +6724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6675,7 +6759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6701,7 +6785,7 @@
         <v>1.6993800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6727,7 +6811,7 @@
         <v>1.762092</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6753,7 +6837,7 @@
         <v>1.8027000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6779,7 +6863,7 @@
         <v>1.8271799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6805,7 +6889,7 @@
         <v>1.848168</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6831,7 +6915,7 @@
         <v>1.8514439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6857,7 +6941,7 @@
         <v>1.863612</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6883,7 +6967,7 @@
         <v>1.86642</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6909,7 +6993,7 @@
         <v>1.8743399999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6935,7 +7019,7 @@
         <v>1.8760679999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6961,7 +7045,7 @@
         <v>1.876968</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6987,7 +7071,7 @@
         <v>1.8777600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7013,7 +7097,7 @@
         <v>1.876428</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7039,7 +7123,7 @@
         <v>1.872036</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7065,7 +7149,7 @@
         <v>1.8707400000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7091,7 +7175,7 @@
         <v>1.8704879999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -7117,7 +7201,7 @@
         <v>1.8672839999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7143,7 +7227,7 @@
         <v>1.8682560000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7169,7 +7253,7 @@
         <v>1.8688320000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7195,7 +7279,7 @@
         <v>1.8619560000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7221,7 +7305,7 @@
         <v>1.861488</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7247,7 +7331,7 @@
         <v>1.853748</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7273,7 +7357,7 @@
         <v>1.8540719999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7299,7 +7383,7 @@
         <v>1.8491399999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7325,7 +7409,7 @@
         <v>1.844136</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7351,7 +7435,7 @@
         <v>1.8445680000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -7377,7 +7461,7 @@
         <v>1.838268</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -7415,9 +7499,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>43</v>
       </c>
@@ -7434,9 +7518,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>44</v>
       </c>
@@ -7455,9 +7539,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +7573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7524,7 +7608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7550,7 +7634,7 @@
         <v>1.452456</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7576,7 +7660,7 @@
         <v>1.5356160000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7602,7 +7686,7 @@
         <v>1.5885359999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7628,7 +7712,7 @@
         <v>1.6181640000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7654,7 +7738,7 @@
         <v>1.6440840000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7680,7 +7764,7 @@
         <v>1.6621199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7706,7 +7790,7 @@
         <v>1.6757280000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7732,7 +7816,7 @@
         <v>1.6873199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7758,7 +7842,7 @@
         <v>1.69326</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7784,7 +7868,7 @@
         <v>1.696464</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -7810,7 +7894,7 @@
         <v>1.7030519999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -7836,7 +7920,7 @@
         <v>1.704672</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7862,7 +7946,7 @@
         <v>1.7043120000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7888,7 +7972,7 @@
         <v>1.707084</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7914,7 +7998,7 @@
         <v>1.7097479999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7940,7 +8024,7 @@
         <v>1.7081279999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -7966,7 +8050,7 @@
         <v>1.7039519999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7992,7 +8076,7 @@
         <v>1.7088119999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8018,7 +8102,7 @@
         <v>1.705608</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -8044,7 +8128,7 @@
         <v>1.705104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -8070,7 +8154,7 @@
         <v>1.70082</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8096,7 +8180,7 @@
         <v>1.701036</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8122,7 +8206,7 @@
         <v>1.699776</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8148,7 +8232,7 @@
         <v>1.6980840000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8174,7 +8258,7 @@
         <v>1.6931160000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8200,7 +8284,7 @@
         <v>1.6930439999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8226,7 +8310,7 @@
         <v>1.6886160000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
